--- a/capiq_data/in_process_data/IQ22666093.xlsx
+++ b/capiq_data/in_process_data/IQ22666093.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35398E0-FB1A-4416-A16B-BA33A2C371EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABD5733-2224-4370-A7C2-D364479FECEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"0803e5a3-25ef-4f3f-a943-8a453f6f327d"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"4bb1c137-778b-4dbb-ba5e-e3c926bafe76"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$69</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$69</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$69</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$69</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$69</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$69</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$69</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$69</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$69</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$69</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$69</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$69</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$69</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$69</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$69</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$69</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$69</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$69</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$69</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$69</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$69</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$69</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$69</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$69</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$69</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$69</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,87 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +814,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>38077</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>191</v>
+        <v>11.92</v>
       </c>
       <c r="D2">
-        <v>1015</v>
+        <v>145.94300000000001</v>
       </c>
       <c r="E2">
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>733</v>
+        <v>58.192999999999998</v>
       </c>
       <c r="G2">
-        <v>1735</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>11019</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3598</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +853,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>785</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4786</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3618</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-550</v>
+        <v>6.8529999999999998</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>38077</v>
       </c>
       <c r="S2">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>6233</v>
+        <v>4260.2690000000002</v>
       </c>
       <c r="U2">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>223</v>
+        <v>14.16</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-697</v>
+        <v>30.954999999999998</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>191</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>38168</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>305</v>
+        <v>22.257000000000001</v>
       </c>
       <c r="D3">
-        <v>951</v>
+        <v>160.477</v>
       </c>
       <c r="E3">
-        <v>866</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>678</v>
+        <v>64.414000000000001</v>
       </c>
       <c r="G3">
-        <v>1629</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>11108</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +933,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4697</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3612</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-13</v>
+        <v>15.15</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>38168</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>6411</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>217</v>
+        <v>23.869</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-168</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-57</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>305</v>
+        <v>22.257000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>38260</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>16.186</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>151.92400000000001</v>
       </c>
       <c r="E4">
-        <v>908</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>60.655999999999999</v>
       </c>
       <c r="G4">
-        <v>2321</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>11836</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4235</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,31 +1019,31 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>5322</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>4257</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>8.3450000000000006</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>38260</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>6514</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1095</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>25.553000000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -977,39 +1058,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>16.186</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>38352</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>237</v>
+        <v>15.744999999999999</v>
       </c>
       <c r="D5">
-        <v>1080</v>
+        <v>172.87100000000001</v>
       </c>
       <c r="E5">
-        <v>976</v>
+        <v>151.12</v>
       </c>
       <c r="F5">
-        <v>785</v>
+        <v>67.662000000000006</v>
       </c>
       <c r="G5">
-        <v>2299</v>
+        <v>198.96899999999999</v>
       </c>
       <c r="H5">
-        <v>11801</v>
+        <v>5564.8280000000004</v>
       </c>
       <c r="I5">
-        <v>48</v>
+        <v>33.326999999999998</v>
       </c>
       <c r="J5">
-        <v>4229</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1102,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>707</v>
+        <v>108.527</v>
       </c>
       <c r="O5">
-        <v>5398</v>
+        <v>1217.549</v>
       </c>
       <c r="P5">
-        <v>4249</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-63</v>
+        <v>-17.306000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>38352</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="T5">
-        <v>6403</v>
+        <v>4347.2790000000005</v>
       </c>
       <c r="U5">
-        <v>1032</v>
+        <v>21.640999999999998</v>
       </c>
       <c r="V5">
-        <v>329</v>
+        <v>20.74</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-354</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-11</v>
+        <v>-12.8</v>
       </c>
       <c r="AA5">
-        <v>237</v>
+        <v>15.744999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38442</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>336</v>
+        <v>16.824999999999999</v>
       </c>
       <c r="D6">
-        <v>1106</v>
+        <v>174.29</v>
       </c>
       <c r="E6">
-        <v>1042</v>
+        <v>153.32300000000001</v>
       </c>
       <c r="F6">
-        <v>809</v>
+        <v>63.436</v>
       </c>
       <c r="G6">
-        <v>2431</v>
+        <v>192.05099999999999</v>
       </c>
       <c r="H6">
-        <v>11913</v>
+        <v>5577.71</v>
       </c>
       <c r="I6">
-        <v>53</v>
+        <v>36.164999999999999</v>
       </c>
       <c r="J6">
-        <v>4219</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1185,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>746</v>
+        <v>101.041</v>
       </c>
       <c r="O6">
-        <v>5394</v>
+        <v>1217.0999999999999</v>
       </c>
       <c r="P6">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>-6.46</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38442</v>
       </c>
       <c r="S6">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>6519</v>
+        <v>4360.6099999999997</v>
       </c>
       <c r="U6">
-        <v>1048</v>
+        <v>15.180999999999999</v>
       </c>
       <c r="V6">
-        <v>340</v>
+        <v>11.005000000000001</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-242</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>336</v>
+        <v>16.824999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38533</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>221</v>
+        <v>4.0270000000000001</v>
       </c>
       <c r="D7">
-        <v>1085</v>
+        <v>178.01900000000001</v>
       </c>
       <c r="E7">
-        <v>1062</v>
+        <v>146.33600000000001</v>
       </c>
       <c r="F7">
-        <v>789</v>
+        <v>62.429000000000002</v>
       </c>
       <c r="G7">
-        <v>2451</v>
+        <v>178.63</v>
       </c>
       <c r="H7">
-        <v>11935</v>
+        <v>5583.8490000000002</v>
       </c>
       <c r="I7">
-        <v>63</v>
+        <v>34.646000000000001</v>
       </c>
       <c r="J7">
-        <v>4218</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1265,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>740</v>
+        <v>94.802999999999997</v>
       </c>
       <c r="O7">
-        <v>5367</v>
+        <v>1215.662</v>
       </c>
       <c r="P7">
-        <v>4237</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>-4</v>
+        <v>-4.3499999999999996</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38533</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>6568</v>
+        <v>4368.1869999999999</v>
       </c>
       <c r="U7">
-        <v>1044</v>
+        <v>10.831</v>
       </c>
       <c r="V7">
-        <v>248</v>
+        <v>19.994</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-213</v>
+        <v>4.1210000000000004</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>221</v>
+        <v>4.0270000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>38625</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>293</v>
+        <v>1.1890000000000001</v>
       </c>
       <c r="D8">
-        <v>1126</v>
+        <v>167.934</v>
       </c>
       <c r="E8">
-        <v>1155</v>
+        <v>148.51</v>
       </c>
       <c r="F8">
-        <v>828</v>
+        <v>58.610999999999997</v>
       </c>
       <c r="G8">
-        <v>3214</v>
+        <v>394.63400000000001</v>
       </c>
       <c r="H8">
-        <v>12810</v>
+        <v>5824.6840000000002</v>
       </c>
       <c r="I8">
-        <v>56</v>
+        <v>37.222999999999999</v>
       </c>
       <c r="J8">
-        <v>5206</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1351,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>757</v>
+        <v>104.458</v>
       </c>
       <c r="O8">
-        <v>6337</v>
+        <v>1257.6220000000001</v>
       </c>
       <c r="P8">
-        <v>5226</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>654</v>
+        <v>216.672</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>38625</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>6473</v>
+        <v>4567.0619999999999</v>
       </c>
       <c r="U8">
-        <v>1698</v>
+        <v>227.50299999999999</v>
       </c>
       <c r="V8">
-        <v>141</v>
+        <v>30.837</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>589</v>
+        <v>200.67699999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>293</v>
+        <v>1.1890000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>38717</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>11.234999999999999</v>
       </c>
       <c r="D9">
-        <v>1076</v>
+        <v>174.26599999999999</v>
       </c>
       <c r="E9">
-        <v>1079</v>
+        <v>134.61500000000001</v>
       </c>
       <c r="F9">
-        <v>792</v>
+        <v>64.194000000000003</v>
       </c>
       <c r="G9">
-        <v>2995</v>
+        <v>400.38600000000002</v>
       </c>
       <c r="H9">
-        <v>12687</v>
+        <v>5819.2359999999999</v>
       </c>
       <c r="I9">
-        <v>54</v>
+        <v>26.853999999999999</v>
       </c>
       <c r="J9">
-        <v>5210</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1434,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>826</v>
+        <v>93.772999999999996</v>
       </c>
       <c r="O9">
-        <v>6420</v>
+        <v>1243.8109999999999</v>
       </c>
       <c r="P9">
-        <v>5231</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>22.849</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>38717</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="T9">
-        <v>6267</v>
+        <v>4575.4250000000002</v>
       </c>
       <c r="U9">
-        <v>1553</v>
+        <v>250.352</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>23.454999999999998</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.129</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="AA9">
-        <v>205</v>
+        <v>11.234999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38807</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>224</v>
+        <v>11.615</v>
       </c>
       <c r="D10">
-        <v>1200</v>
+        <v>153.56800000000001</v>
       </c>
       <c r="E10">
-        <v>1130</v>
+        <v>142.583</v>
       </c>
       <c r="F10">
-        <v>879</v>
+        <v>55.969000000000001</v>
       </c>
       <c r="G10">
-        <v>2730</v>
+        <v>312.59300000000002</v>
       </c>
       <c r="H10">
-        <v>12930</v>
+        <v>5849.3810000000003</v>
       </c>
       <c r="I10">
-        <v>71</v>
+        <v>31.896999999999998</v>
       </c>
       <c r="J10">
-        <v>5133</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1517,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>946</v>
+        <v>96.034999999999997</v>
       </c>
       <c r="O10">
-        <v>6637</v>
+        <v>1258.3710000000001</v>
       </c>
       <c r="P10">
-        <v>5243</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>-352</v>
+        <v>-99.531000000000006</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38807</v>
       </c>
       <c r="S10">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>6293</v>
+        <v>4591.01</v>
       </c>
       <c r="U10">
-        <v>1201</v>
+        <v>150.821</v>
       </c>
       <c r="V10">
-        <v>328</v>
+        <v>10.268000000000001</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-233</v>
+        <v>-2E-3</v>
       </c>
       <c r="Y10">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>-289</v>
+        <v>-49.174999999999997</v>
       </c>
       <c r="AA10">
-        <v>224</v>
+        <v>11.615</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38898</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>231</v>
+        <v>13.734</v>
       </c>
       <c r="D11">
-        <v>1156</v>
+        <v>165.78899999999999</v>
       </c>
       <c r="E11">
-        <v>1148</v>
+        <v>137.75</v>
       </c>
       <c r="F11">
-        <v>818</v>
+        <v>56.165999999999997</v>
       </c>
       <c r="G11">
-        <v>4013</v>
+        <v>306.47800000000001</v>
       </c>
       <c r="H11">
-        <v>14421</v>
+        <v>5884.9350000000004</v>
       </c>
       <c r="I11">
-        <v>67</v>
+        <v>30.66</v>
       </c>
       <c r="J11">
-        <v>6407</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1597,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1101</v>
+        <v>98.349000000000004</v>
       </c>
       <c r="O11">
-        <v>8146</v>
+        <v>1273.4110000000001</v>
       </c>
       <c r="P11">
-        <v>6429</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1159</v>
+        <v>1.972</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38898</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>6275</v>
+        <v>4611.5240000000003</v>
       </c>
       <c r="U11">
-        <v>2360</v>
+        <v>152.79300000000001</v>
       </c>
       <c r="V11">
-        <v>131</v>
+        <v>21.774999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>1182</v>
+        <v>-2E-3</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-25</v>
+        <v>-1.486</v>
       </c>
       <c r="AA11">
-        <v>231</v>
+        <v>13.734</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38990</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>300</v>
+        <v>-76.632999999999996</v>
       </c>
       <c r="D12">
-        <v>1467</v>
+        <v>169.876</v>
       </c>
       <c r="E12">
-        <v>1332</v>
+        <v>159.654</v>
       </c>
       <c r="F12">
-        <v>1038</v>
+        <v>58.372999999999998</v>
       </c>
       <c r="G12">
-        <v>2265</v>
+        <v>330.85199999999998</v>
       </c>
       <c r="H12">
-        <v>14687</v>
+        <v>5854.942</v>
       </c>
       <c r="I12">
-        <v>116</v>
+        <v>39.732999999999997</v>
       </c>
       <c r="J12">
-        <v>6455</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1683,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1002</v>
+        <v>125.512</v>
       </c>
       <c r="O12">
-        <v>8383</v>
+        <v>1314.808</v>
       </c>
       <c r="P12">
-        <v>6478</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-1985</v>
+        <v>-0.94499999999999995</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38990</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>6304</v>
+        <v>4540.134</v>
       </c>
       <c r="U12">
-        <v>375</v>
+        <v>151.84800000000001</v>
       </c>
       <c r="V12">
-        <v>339</v>
+        <v>17.093</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-502</v>
+        <v>-2E-3</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>3</v>
+        <v>-0.39100000000000001</v>
       </c>
       <c r="AA12">
-        <v>300</v>
+        <v>-76.632999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>39082</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>255</v>
+        <v>5.274</v>
       </c>
       <c r="D13">
-        <v>1375</v>
+        <v>198.85400000000001</v>
       </c>
       <c r="E13">
-        <v>1344</v>
+        <v>147.43600000000001</v>
       </c>
       <c r="F13">
-        <v>947</v>
+        <v>49.521999999999998</v>
       </c>
       <c r="G13">
-        <v>2364</v>
+        <v>317.36200000000002</v>
       </c>
       <c r="H13">
-        <v>14867</v>
+        <v>5870.982</v>
       </c>
       <c r="I13">
-        <v>116</v>
+        <v>43.655999999999999</v>
       </c>
       <c r="J13">
-        <v>6485</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1766,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1135</v>
+        <v>121.887</v>
       </c>
       <c r="O13">
-        <v>8610</v>
+        <v>1321.7180000000001</v>
       </c>
       <c r="P13">
-        <v>6508</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>64</v>
+        <v>2.927</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>39082</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="T13">
-        <v>6257</v>
+        <v>4549.2640000000001</v>
       </c>
       <c r="U13">
-        <v>439</v>
+        <v>154.77500000000001</v>
       </c>
       <c r="V13">
-        <v>460</v>
+        <v>24.497</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-426</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>17</v>
+        <v>-0.78500000000000003</v>
       </c>
       <c r="AA13">
-        <v>255</v>
+        <v>5.274</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>39172</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>289</v>
+        <v>20.463999999999999</v>
       </c>
       <c r="D14">
-        <v>1537</v>
+        <v>173.88200000000001</v>
       </c>
       <c r="E14">
-        <v>1371</v>
+        <v>148.63399999999999</v>
       </c>
       <c r="F14">
-        <v>1076</v>
+        <v>52.34</v>
       </c>
       <c r="G14">
-        <v>2410</v>
+        <v>315.459</v>
       </c>
       <c r="H14">
-        <v>14979</v>
+        <v>5895.2340000000004</v>
       </c>
       <c r="I14">
-        <v>141</v>
+        <v>35.231999999999999</v>
       </c>
       <c r="J14">
-        <v>6482</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1849,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1294</v>
+        <v>109.92100000000001</v>
       </c>
       <c r="O14">
-        <v>8746</v>
+        <v>1324.787</v>
       </c>
       <c r="P14">
-        <v>6499</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>-31</v>
+        <v>-4.298</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>39172</v>
       </c>
       <c r="S14">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>6233</v>
+        <v>4570.4470000000001</v>
       </c>
       <c r="U14">
-        <v>408</v>
+        <v>150.477</v>
       </c>
       <c r="V14">
-        <v>355</v>
+        <v>2.5649999999999999</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-339</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>24</v>
+        <v>-0.66500000000000004</v>
       </c>
       <c r="AA14">
-        <v>289</v>
+        <v>20.463999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>39263</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1411</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1341</v>
+        <v>140.505</v>
       </c>
       <c r="F15">
-        <v>935</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>2740</v>
+        <v>332.15800000000002</v>
       </c>
       <c r="H15">
-        <v>15311</v>
+        <v>6041.5439999999999</v>
       </c>
       <c r="I15">
-        <v>151</v>
+        <v>30.97</v>
       </c>
       <c r="J15">
-        <v>6743</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,84 +1929,84 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1253</v>
+        <v>119.911</v>
       </c>
       <c r="O15">
-        <v>9093</v>
+        <v>1387.5160000000001</v>
       </c>
       <c r="P15">
-        <v>6918</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>39263</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>6218</v>
+        <v>4654.0280000000002</v>
       </c>
       <c r="U15">
-        <v>757</v>
+        <v>174.66300000000001</v>
       </c>
       <c r="V15">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>39355</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>379</v>
+        <v>7.319</v>
       </c>
       <c r="D16">
-        <v>1610</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>1525</v>
+        <v>152.41300000000001</v>
       </c>
       <c r="F16">
-        <v>1105</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>2571</v>
+        <v>336.375</v>
       </c>
       <c r="H16">
-        <v>16105</v>
+        <v>6053.1360000000004</v>
       </c>
       <c r="I16">
-        <v>226</v>
+        <v>32.984000000000002</v>
       </c>
       <c r="J16">
-        <v>6045</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2015,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2360</v>
+        <v>113.229</v>
       </c>
       <c r="O16">
-        <v>9473</v>
+        <v>1383.127</v>
       </c>
       <c r="P16">
-        <v>7074</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-385</v>
+        <v>-16.888000000000002</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>39355</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>6632</v>
+        <v>4670.009</v>
       </c>
       <c r="U16">
-        <v>372</v>
+        <v>157.46100000000001</v>
       </c>
       <c r="V16">
-        <v>232</v>
+        <v>-2.379</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-341</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>15</v>
+        <v>1.671</v>
       </c>
       <c r="AA16">
-        <v>379</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>39447</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1568</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1464</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>2584</v>
+        <v>372</v>
       </c>
       <c r="H17">
-        <v>16373</v>
+        <v>5866</v>
       </c>
       <c r="I17">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>6153</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,78 +2098,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2548</v>
+        <v>120</v>
       </c>
       <c r="O17">
-        <v>9703</v>
+        <v>1371</v>
       </c>
       <c r="P17">
-        <v>7148</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>39447</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="T17">
-        <v>6670</v>
+        <v>4495</v>
       </c>
       <c r="U17">
-        <v>376</v>
+        <v>8</v>
       </c>
       <c r="V17">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-168</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-151</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39538</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>1676</v>
+        <v>809</v>
       </c>
       <c r="E18">
-        <v>1433</v>
+        <v>172.624</v>
       </c>
       <c r="F18">
-        <v>1096</v>
+        <v>567</v>
       </c>
       <c r="G18">
-        <v>2491</v>
+        <v>414.27699999999999</v>
       </c>
       <c r="H18">
-        <v>15970</v>
+        <v>5935.8379999999997</v>
       </c>
       <c r="I18">
-        <v>225</v>
+        <v>48.555</v>
       </c>
       <c r="J18">
-        <v>6002</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,81 +2178,81 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-186</v>
       </c>
       <c r="N18">
-        <v>2604</v>
+        <v>137.40199999999999</v>
       </c>
       <c r="O18">
-        <v>9619</v>
+        <v>1411.2650000000001</v>
       </c>
       <c r="P18">
-        <v>7109</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>-9</v>
+        <v>83</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39538</v>
       </c>
       <c r="S18">
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>6351</v>
+        <v>4524.5730000000003</v>
       </c>
       <c r="U18">
-        <v>367</v>
+        <v>222.577</v>
       </c>
       <c r="V18">
-        <v>425</v>
+        <v>67</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-365</v>
+        <v>-37</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA18">
-        <v>250</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39629</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1537</v>
+        <v>885</v>
       </c>
       <c r="E19">
-        <v>1431</v>
+        <v>178.20500000000001</v>
       </c>
       <c r="F19">
-        <v>976</v>
+        <v>631</v>
       </c>
       <c r="G19">
-        <v>2469</v>
+        <v>422.07799999999997</v>
       </c>
       <c r="H19">
-        <v>15782</v>
+        <v>6019.3779999999997</v>
       </c>
       <c r="I19">
-        <v>205</v>
+        <v>42.39</v>
       </c>
       <c r="J19">
-        <v>7036</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2261,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-874</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1765</v>
+        <v>134.83199999999999</v>
       </c>
       <c r="O19">
-        <v>9739</v>
+        <v>1442.011</v>
       </c>
       <c r="P19">
-        <v>7489</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39629</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>6043</v>
+        <v>4577.3670000000002</v>
       </c>
       <c r="U19">
-        <v>321</v>
+        <v>226.00700000000001</v>
       </c>
       <c r="V19">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>250</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>39721</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="D20">
-        <v>1654</v>
+        <v>845</v>
       </c>
       <c r="E20">
-        <v>1505</v>
+        <v>764</v>
       </c>
       <c r="F20">
-        <v>1095</v>
+        <v>608</v>
       </c>
       <c r="G20">
-        <v>2468</v>
+        <v>1106</v>
       </c>
       <c r="H20">
-        <v>15729</v>
+        <v>10445</v>
       </c>
       <c r="I20">
-        <v>277</v>
+        <v>418</v>
       </c>
       <c r="J20">
-        <v>6856</v>
+        <v>3555</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2347,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1712</v>
+        <v>1020</v>
       </c>
       <c r="O20">
-        <v>9489</v>
+        <v>4877</v>
       </c>
       <c r="P20">
-        <v>7205</v>
+        <v>3904</v>
       </c>
       <c r="Q20">
-        <v>-89</v>
+        <v>-417</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>39721</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>6240</v>
+        <v>5568</v>
       </c>
       <c r="U20">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="V20">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-499</v>
+        <v>-546</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>286</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39813</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1557</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1556</v>
+        <v>780</v>
       </c>
       <c r="F21">
-        <v>986</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>2719</v>
+        <v>1109</v>
       </c>
       <c r="H21">
-        <v>15919</v>
+        <v>10484</v>
       </c>
       <c r="I21">
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="J21">
-        <v>6941</v>
+        <v>3331</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,244 +2430,244 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2108</v>
+        <v>1070</v>
       </c>
       <c r="O21">
-        <v>10033</v>
+        <v>4874</v>
       </c>
       <c r="P21">
-        <v>7057</v>
+        <v>3789</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39813</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="T21">
-        <v>5886</v>
+        <v>5610</v>
       </c>
       <c r="U21">
-        <v>262</v>
+        <v>100</v>
       </c>
       <c r="V21">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-212</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39903</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="D22">
-        <v>1646</v>
+        <v>806</v>
       </c>
       <c r="E22">
-        <v>1479</v>
+        <v>740</v>
       </c>
       <c r="F22">
-        <v>1054</v>
+        <v>566</v>
       </c>
       <c r="G22">
-        <v>2596</v>
+        <v>1112</v>
       </c>
       <c r="H22">
-        <v>15864</v>
+        <v>10475</v>
       </c>
       <c r="I22">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="J22">
-        <v>7616</v>
+        <v>3209</v>
       </c>
       <c r="K22">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="N22">
-        <v>1579</v>
+        <v>1174</v>
       </c>
       <c r="O22">
-        <v>10172</v>
+        <v>4749</v>
       </c>
       <c r="P22">
-        <v>7735</v>
+        <v>3821</v>
       </c>
       <c r="Q22">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39903</v>
       </c>
       <c r="S22">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>5692</v>
+        <v>5726</v>
       </c>
       <c r="U22">
-        <v>390</v>
+        <v>142</v>
       </c>
       <c r="V22">
-        <v>625</v>
+        <v>151</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-203</v>
+        <v>-74</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-210</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>219</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39994</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="D23">
-        <v>1561</v>
+        <v>865</v>
       </c>
       <c r="E23">
-        <v>1520</v>
+        <v>759</v>
       </c>
       <c r="F23">
-        <v>975</v>
+        <v>631</v>
       </c>
       <c r="G23">
-        <v>2667</v>
+        <v>1331</v>
       </c>
       <c r="H23">
-        <v>15878</v>
+        <v>10696</v>
       </c>
       <c r="I23">
-        <v>171</v>
+        <v>544</v>
       </c>
       <c r="J23">
-        <v>7965</v>
+        <v>3053</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-93</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-264</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1375</v>
+        <v>1227</v>
       </c>
       <c r="O23">
-        <v>10264</v>
+        <v>4729</v>
       </c>
       <c r="P23">
-        <v>7990</v>
+        <v>3474</v>
       </c>
       <c r="Q23">
-        <v>-57</v>
+        <v>197</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39994</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5614</v>
+        <v>5967</v>
       </c>
       <c r="U23">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="V23">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-155</v>
+        <v>-297</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AA23">
-        <v>263</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>40086</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>408</v>
+        <v>100</v>
       </c>
       <c r="D24">
-        <v>1708</v>
+        <v>837</v>
       </c>
       <c r="E24">
-        <v>1574</v>
+        <v>775</v>
       </c>
       <c r="F24">
-        <v>1108</v>
+        <v>605</v>
       </c>
       <c r="G24">
-        <v>2548</v>
+        <v>1417</v>
       </c>
       <c r="H24">
-        <v>15690</v>
+        <v>10741</v>
       </c>
       <c r="I24">
-        <v>185</v>
+        <v>377</v>
       </c>
       <c r="J24">
-        <v>7809</v>
+        <v>3472</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2679,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1442</v>
+        <v>762</v>
       </c>
       <c r="O24">
-        <v>10104</v>
+        <v>4650</v>
       </c>
       <c r="P24">
-        <v>7939</v>
+        <v>3511</v>
       </c>
       <c r="Q24">
-        <v>-148</v>
+        <v>62</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>40086</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>5586</v>
+        <v>6091</v>
       </c>
       <c r="U24">
-        <v>185</v>
+        <v>401</v>
       </c>
       <c r="V24">
-        <v>328</v>
+        <v>47</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-421</v>
+        <v>28</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-35</v>
+        <v>-9</v>
       </c>
       <c r="AA24">
-        <v>408</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>40178</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1556</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1545</v>
+        <v>812</v>
       </c>
       <c r="F25">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>2683</v>
+        <v>1671</v>
       </c>
       <c r="H25">
-        <v>15850</v>
+        <v>10952</v>
       </c>
       <c r="I25">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="J25">
-        <v>7901</v>
+        <v>3476</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,247 +2762,247 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1522</v>
+        <v>783</v>
       </c>
       <c r="O25">
-        <v>10399</v>
+        <v>4683</v>
       </c>
       <c r="P25">
-        <v>7996</v>
+        <v>3535</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>40178</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="T25">
-        <v>5451</v>
+        <v>6269</v>
       </c>
       <c r="U25">
-        <v>224</v>
+        <v>623</v>
       </c>
       <c r="V25">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-399</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40268</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="D26">
-        <v>1672</v>
+        <v>869</v>
       </c>
       <c r="E26">
-        <v>1495</v>
+        <v>773</v>
       </c>
       <c r="F26">
-        <v>1081</v>
+        <v>602</v>
       </c>
       <c r="G26">
-        <v>2502</v>
+        <v>1721</v>
       </c>
       <c r="H26">
-        <v>15672</v>
+        <v>10952</v>
       </c>
       <c r="I26">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="J26">
-        <v>7841</v>
+        <v>3235</v>
       </c>
       <c r="K26">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="N26">
-        <v>1561</v>
+        <v>934</v>
       </c>
       <c r="O26">
-        <v>10262</v>
+        <v>4519</v>
       </c>
       <c r="P26">
-        <v>7923</v>
+        <v>3491</v>
       </c>
       <c r="Q26">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40268</v>
       </c>
       <c r="S26">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>5410</v>
+        <v>6433</v>
       </c>
       <c r="U26">
-        <v>300</v>
+        <v>652</v>
       </c>
       <c r="V26">
-        <v>546</v>
+        <v>126</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-209</v>
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-183</v>
+        <v>-15</v>
       </c>
       <c r="AA26">
-        <v>304</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>40359</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="D27">
-        <v>1613</v>
+        <v>963</v>
       </c>
       <c r="E27">
-        <v>1560</v>
+        <v>836</v>
       </c>
       <c r="F27">
-        <v>1006</v>
+        <v>709</v>
       </c>
       <c r="G27">
-        <v>2591</v>
+        <v>1815</v>
       </c>
       <c r="H27">
-        <v>15862</v>
+        <v>11074</v>
       </c>
       <c r="I27">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="J27">
-        <v>7970</v>
+        <v>3594</v>
       </c>
       <c r="K27">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-788</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1534</v>
+        <v>608</v>
       </c>
       <c r="O27">
-        <v>10278</v>
+        <v>4511</v>
       </c>
       <c r="P27">
-        <v>8102</v>
+        <v>3611</v>
       </c>
       <c r="Q27">
-        <v>-33</v>
+        <v>22</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>40359</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>5584</v>
+        <v>6563</v>
       </c>
       <c r="U27">
-        <v>267</v>
+        <v>670</v>
       </c>
       <c r="V27">
-        <v>255</v>
+        <v>-36</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-84</v>
+        <v>98</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-183</v>
+        <v>-26</v>
       </c>
       <c r="AA27">
-        <v>215</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>40451</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1745</v>
+        <v>926</v>
       </c>
       <c r="E28">
-        <v>1758</v>
+        <v>843</v>
       </c>
       <c r="F28">
-        <v>1117</v>
+        <v>676</v>
       </c>
       <c r="G28">
-        <v>2770</v>
+        <v>2137</v>
       </c>
       <c r="H28">
-        <v>16149</v>
+        <v>11398</v>
       </c>
       <c r="I28">
-        <v>222</v>
+        <v>52</v>
       </c>
       <c r="J28">
-        <v>8158</v>
+        <v>3595</v>
       </c>
       <c r="K28">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,78 +3011,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1466</v>
+        <v>792</v>
       </c>
       <c r="O28">
-        <v>10386</v>
+        <v>4654</v>
       </c>
       <c r="P28">
-        <v>8263</v>
+        <v>3613</v>
       </c>
       <c r="Q28">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>40451</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>5763</v>
+        <v>6744</v>
       </c>
       <c r="U28">
-        <v>206</v>
+        <v>1016</v>
       </c>
       <c r="V28">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-211</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-69</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>374</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40543</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="D29">
-        <v>1651</v>
+        <v>1015</v>
       </c>
       <c r="E29">
-        <v>1652</v>
+        <v>880</v>
       </c>
       <c r="F29">
-        <v>983</v>
+        <v>733</v>
       </c>
       <c r="G29">
-        <v>9477</v>
+        <v>1735</v>
       </c>
       <c r="H29">
-        <v>23143</v>
+        <v>11019</v>
       </c>
       <c r="I29">
-        <v>253</v>
+        <v>87</v>
       </c>
       <c r="J29">
-        <v>14676</v>
+        <v>3598</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3094,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1615</v>
+        <v>785</v>
       </c>
       <c r="O29">
-        <v>17043</v>
+        <v>4786</v>
       </c>
       <c r="P29">
-        <v>14708</v>
+        <v>3618</v>
       </c>
       <c r="Q29">
-        <v>6788</v>
+        <v>-550</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40543</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="T29">
-        <v>6100</v>
+        <v>6233</v>
       </c>
       <c r="U29">
-        <v>6994</v>
+        <v>466</v>
       </c>
       <c r="V29">
-        <v>724</v>
+        <v>223</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>6278</v>
+        <v>-697</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-97</v>
+        <v>-56</v>
       </c>
       <c r="AA29">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40633</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-1144</v>
+        <v>305</v>
       </c>
       <c r="D30">
-        <v>1864</v>
+        <v>951</v>
       </c>
       <c r="E30">
-        <v>1838</v>
+        <v>866</v>
       </c>
       <c r="F30">
-        <v>1140</v>
+        <v>678</v>
       </c>
       <c r="G30">
-        <v>9991</v>
+        <v>1629</v>
       </c>
       <c r="H30">
-        <v>22555</v>
+        <v>11108</v>
       </c>
       <c r="I30">
-        <v>277</v>
+        <v>62</v>
       </c>
       <c r="J30">
-        <v>14755</v>
+        <v>3591</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3093,81 +3174,81 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="N30">
-        <v>1871</v>
+        <v>654</v>
       </c>
       <c r="O30">
-        <v>17532</v>
+        <v>4697</v>
       </c>
       <c r="P30">
-        <v>14785</v>
+        <v>3612</v>
       </c>
       <c r="Q30">
-        <v>315</v>
+        <v>-13</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40633</v>
       </c>
       <c r="S30">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>5023</v>
+        <v>6411</v>
       </c>
       <c r="U30">
-        <v>7309</v>
+        <v>453</v>
       </c>
       <c r="V30">
-        <v>462</v>
+        <v>217</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-32</v>
+        <v>-168</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-18</v>
+        <v>-57</v>
       </c>
       <c r="AA30">
-        <v>-1144</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>40724</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2307</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>2654</v>
+        <v>908</v>
       </c>
       <c r="F31">
-        <v>1248</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>4521</v>
+        <v>2321</v>
       </c>
       <c r="H31">
-        <v>34658</v>
+        <v>11836</v>
       </c>
       <c r="I31">
-        <v>283</v>
+        <v>48</v>
       </c>
       <c r="J31">
-        <v>19214</v>
+        <v>4235</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3257,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>2465</v>
+        <v>614</v>
       </c>
       <c r="O31">
-        <v>24645</v>
+        <v>5322</v>
       </c>
       <c r="P31">
-        <v>19367</v>
+        <v>4257</v>
       </c>
       <c r="Q31">
-        <v>-6497</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>40724</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>10013</v>
+        <v>6514</v>
       </c>
       <c r="U31">
-        <v>812</v>
+        <v>1095</v>
       </c>
       <c r="V31">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>2019</v>
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40816</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="D32">
-        <v>2845</v>
+        <v>1080</v>
       </c>
       <c r="E32">
-        <v>2747</v>
+        <v>976</v>
       </c>
       <c r="F32">
-        <v>1854</v>
+        <v>785</v>
       </c>
       <c r="G32">
-        <v>3906</v>
+        <v>2299</v>
       </c>
       <c r="H32">
-        <v>33492</v>
+        <v>11801</v>
       </c>
       <c r="I32">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="J32">
-        <v>17683</v>
+        <v>4229</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3343,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2696</v>
+        <v>707</v>
       </c>
       <c r="O32">
-        <v>23456</v>
+        <v>5398</v>
       </c>
       <c r="P32">
-        <v>18329</v>
+        <v>4249</v>
       </c>
       <c r="Q32">
-        <v>-420</v>
+        <v>-63</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40816</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>10036</v>
+        <v>6403</v>
       </c>
       <c r="U32">
-        <v>392</v>
+        <v>1032</v>
       </c>
       <c r="V32">
-        <v>556</v>
+        <v>329</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-1042</v>
+        <v>-354</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-26</v>
+        <v>-11</v>
       </c>
       <c r="AA32">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40908</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>117</v>
+        <v>336</v>
       </c>
       <c r="D33">
-        <v>2592</v>
+        <v>1106</v>
       </c>
       <c r="E33">
-        <v>2578</v>
+        <v>1042</v>
       </c>
       <c r="F33">
-        <v>1660</v>
+        <v>809</v>
       </c>
       <c r="G33">
-        <v>3914</v>
+        <v>2431</v>
       </c>
       <c r="H33">
-        <v>32912</v>
+        <v>11913</v>
       </c>
       <c r="I33">
-        <v>280</v>
+        <v>53</v>
       </c>
       <c r="J33">
-        <v>15829</v>
+        <v>4219</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3426,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3860</v>
+        <v>746</v>
       </c>
       <c r="O33">
-        <v>22679</v>
+        <v>5394</v>
       </c>
       <c r="P33">
-        <v>17482</v>
+        <v>4245</v>
       </c>
       <c r="Q33">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40908</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="T33">
-        <v>10233</v>
+        <v>6519</v>
       </c>
       <c r="U33">
-        <v>531</v>
+        <v>1048</v>
       </c>
       <c r="V33">
-        <v>931</v>
+        <v>340</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-829</v>
+        <v>-242</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-8</v>
+        <v>-37</v>
       </c>
       <c r="AA33">
-        <v>117</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40999</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="D34">
-        <v>2809</v>
+        <v>1085</v>
       </c>
       <c r="E34">
-        <v>2620</v>
+        <v>1062</v>
       </c>
       <c r="F34">
-        <v>1881</v>
+        <v>789</v>
       </c>
       <c r="G34">
-        <v>4231</v>
+        <v>2451</v>
       </c>
       <c r="H34">
-        <v>32550</v>
+        <v>11935</v>
       </c>
       <c r="I34">
-        <v>325</v>
+        <v>63</v>
       </c>
       <c r="J34">
-        <v>14974</v>
+        <v>4218</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,81 +3506,81 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="N34">
-        <v>3997</v>
+        <v>740</v>
       </c>
       <c r="O34">
-        <v>22033</v>
+        <v>5367</v>
       </c>
       <c r="P34">
-        <v>17045</v>
+        <v>4237</v>
       </c>
       <c r="Q34">
-        <v>455</v>
+        <v>-4</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40999</v>
       </c>
       <c r="S34">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>10517</v>
+        <v>6568</v>
       </c>
       <c r="U34">
-        <v>986</v>
+        <v>1044</v>
       </c>
       <c r="V34">
-        <v>929</v>
+        <v>248</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-431</v>
+        <v>-213</v>
       </c>
       <c r="Y34">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-4</v>
+        <v>-21</v>
       </c>
       <c r="AA34">
-        <v>269</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>41090</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>384</v>
+        <v>293</v>
       </c>
       <c r="D35">
-        <v>2707</v>
+        <v>1126</v>
       </c>
       <c r="E35">
-        <v>2625</v>
+        <v>1155</v>
       </c>
       <c r="F35">
-        <v>1777</v>
+        <v>828</v>
       </c>
       <c r="G35">
-        <v>4025</v>
+        <v>3214</v>
       </c>
       <c r="H35">
-        <v>32444</v>
+        <v>12810</v>
       </c>
       <c r="I35">
-        <v>314</v>
+        <v>56</v>
       </c>
       <c r="J35">
-        <v>14956</v>
+        <v>5206</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3589,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-453</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>3475</v>
+        <v>757</v>
       </c>
       <c r="O35">
-        <v>21704</v>
+        <v>6337</v>
       </c>
       <c r="P35">
-        <v>16955</v>
+        <v>5226</v>
       </c>
       <c r="Q35">
-        <v>-241</v>
+        <v>654</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>41090</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>10740</v>
+        <v>6473</v>
       </c>
       <c r="U35">
-        <v>745</v>
+        <v>1698</v>
       </c>
       <c r="V35">
-        <v>542</v>
+        <v>141</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-652</v>
+        <v>589</v>
       </c>
       <c r="Y35">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-34</v>
+        <v>-49</v>
       </c>
       <c r="AA35">
-        <v>384</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>41182</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>947</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>2885</v>
+        <v>1076</v>
       </c>
       <c r="E36">
-        <v>2854</v>
+        <v>1079</v>
       </c>
       <c r="F36">
-        <v>1950</v>
+        <v>792</v>
       </c>
       <c r="G36">
-        <v>4932</v>
+        <v>2995</v>
       </c>
       <c r="H36">
-        <v>33845</v>
+        <v>12687</v>
       </c>
       <c r="I36">
-        <v>325</v>
+        <v>54</v>
       </c>
       <c r="J36">
-        <v>14823</v>
+        <v>5210</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3675,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3874</v>
+        <v>826</v>
       </c>
       <c r="O36">
-        <v>22180</v>
+        <v>6420</v>
       </c>
       <c r="P36">
-        <v>17265</v>
+        <v>5231</v>
       </c>
       <c r="Q36">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>41182</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>11665</v>
+        <v>6267</v>
       </c>
       <c r="U36">
-        <v>1321</v>
+        <v>1553</v>
       </c>
       <c r="V36">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>947</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>41274</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="D37">
-        <v>2678</v>
+        <v>1200</v>
       </c>
       <c r="E37">
-        <v>2695</v>
+        <v>1130</v>
       </c>
       <c r="F37">
-        <v>1768</v>
+        <v>879</v>
       </c>
       <c r="G37">
-        <v>4313</v>
+        <v>2730</v>
       </c>
       <c r="H37">
-        <v>32825</v>
+        <v>12930</v>
       </c>
       <c r="I37">
-        <v>380</v>
+        <v>71</v>
       </c>
       <c r="J37">
-        <v>14757</v>
+        <v>5133</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3758,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2837</v>
+        <v>946</v>
       </c>
       <c r="O37">
-        <v>21246</v>
+        <v>6637</v>
       </c>
       <c r="P37">
-        <v>16299</v>
+        <v>5243</v>
       </c>
       <c r="Q37">
-        <v>-508</v>
+        <v>-352</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>41274</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="T37">
-        <v>11579</v>
+        <v>6293</v>
       </c>
       <c r="U37">
-        <v>813</v>
+        <v>1201</v>
       </c>
       <c r="V37">
-        <v>951</v>
+        <v>328</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-1349</v>
+        <v>-233</v>
       </c>
       <c r="Y37">
-        <v>812</v>
+        <v>79</v>
       </c>
       <c r="Z37">
-        <v>-56</v>
+        <v>-289</v>
       </c>
       <c r="AA37">
-        <v>262</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>41364</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>476</v>
+        <v>231</v>
       </c>
       <c r="D38">
-        <v>2874</v>
+        <v>1156</v>
       </c>
       <c r="E38">
-        <v>2633</v>
+        <v>1148</v>
       </c>
       <c r="F38">
-        <v>1897</v>
+        <v>818</v>
       </c>
       <c r="G38">
-        <v>5217</v>
+        <v>4013</v>
       </c>
       <c r="H38">
-        <v>33735</v>
+        <v>14421</v>
       </c>
       <c r="I38">
-        <v>463</v>
+        <v>67</v>
       </c>
       <c r="J38">
-        <v>14810</v>
+        <v>6407</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3757,81 +3838,81 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="N38">
-        <v>3239</v>
+        <v>1101</v>
       </c>
       <c r="O38">
-        <v>21769</v>
+        <v>8146</v>
       </c>
       <c r="P38">
-        <v>16372</v>
+        <v>6429</v>
       </c>
       <c r="Q38">
-        <v>739</v>
+        <v>1159</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>41364</v>
       </c>
       <c r="S38">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>11966</v>
+        <v>6275</v>
       </c>
       <c r="U38">
-        <v>1552</v>
+        <v>2360</v>
       </c>
       <c r="V38">
-        <v>1232</v>
+        <v>131</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-365</v>
+        <v>1182</v>
       </c>
       <c r="Y38">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-156</v>
+        <v>-25</v>
       </c>
       <c r="AA38">
-        <v>476</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>41455</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>377</v>
+        <v>300</v>
       </c>
       <c r="D39">
-        <v>2683</v>
+        <v>1467</v>
       </c>
       <c r="E39">
-        <v>2564</v>
+        <v>1332</v>
       </c>
       <c r="F39">
-        <v>1765</v>
+        <v>1038</v>
       </c>
       <c r="G39">
-        <v>4626</v>
+        <v>2265</v>
       </c>
       <c r="H39">
-        <v>33390</v>
+        <v>14687</v>
       </c>
       <c r="I39">
-        <v>421</v>
+        <v>116</v>
       </c>
       <c r="J39">
-        <v>15501</v>
+        <v>6455</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3924,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2875</v>
+        <v>1002</v>
       </c>
       <c r="O39">
-        <v>21986</v>
+        <v>8383</v>
       </c>
       <c r="P39">
-        <v>16108</v>
+        <v>6478</v>
       </c>
       <c r="Q39">
-        <v>-18</v>
+        <v>-1985</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>41455</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>11404</v>
+        <v>6304</v>
       </c>
       <c r="U39">
-        <v>1453</v>
+        <v>375</v>
       </c>
       <c r="V39">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-259</v>
+        <v>-502</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>-42</v>
+        <v>3</v>
       </c>
       <c r="AA39">
-        <v>377</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>41547</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D40">
-        <v>2541</v>
+        <v>1375</v>
       </c>
       <c r="E40">
-        <v>2473</v>
+        <v>1344</v>
       </c>
       <c r="F40">
-        <v>1737</v>
+        <v>947</v>
       </c>
       <c r="G40">
-        <v>4717</v>
+        <v>2364</v>
       </c>
       <c r="H40">
-        <v>33089</v>
+        <v>14867</v>
       </c>
       <c r="I40">
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="J40">
-        <v>15170</v>
+        <v>6485</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4007,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2576</v>
+        <v>1135</v>
       </c>
       <c r="O40">
-        <v>21289</v>
+        <v>8610</v>
       </c>
       <c r="P40">
-        <v>15509</v>
+        <v>6508</v>
       </c>
       <c r="Q40">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>41547</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>11800</v>
+        <v>6257</v>
       </c>
       <c r="U40">
-        <v>1683</v>
+        <v>439</v>
       </c>
       <c r="V40">
-        <v>991</v>
+        <v>460</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-739</v>
+        <v>-426</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA40">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>41639</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D41">
-        <v>2561</v>
+        <v>1537</v>
       </c>
       <c r="E41">
-        <v>2444</v>
+        <v>1371</v>
       </c>
       <c r="F41">
-        <v>1559</v>
+        <v>1076</v>
       </c>
       <c r="G41">
-        <v>5478</v>
+        <v>2410</v>
       </c>
       <c r="H41">
-        <v>33438</v>
+        <v>14979</v>
       </c>
       <c r="I41">
-        <v>403</v>
+        <v>141</v>
       </c>
       <c r="J41">
-        <v>15154</v>
+        <v>6482</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4090,2369 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2756</v>
+        <v>1294</v>
       </c>
       <c r="O41">
-        <v>21398</v>
+        <v>8746</v>
       </c>
       <c r="P41">
-        <v>15490</v>
+        <v>6499</v>
       </c>
       <c r="Q41">
-        <v>218</v>
+        <v>-31</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>41639</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="T41">
-        <v>12040</v>
+        <v>6233</v>
       </c>
       <c r="U41">
-        <v>1893</v>
+        <v>408</v>
       </c>
       <c r="V41">
-        <v>860</v>
+        <v>355</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-274</v>
+        <v>-339</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-308</v>
+        <v>24</v>
       </c>
       <c r="AA41">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>41729</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>230</v>
+      </c>
+      <c r="D42">
+        <v>1411</v>
+      </c>
+      <c r="E42">
+        <v>1341</v>
+      </c>
+      <c r="F42">
+        <v>935</v>
+      </c>
+      <c r="G42">
+        <v>2740</v>
+      </c>
+      <c r="H42">
+        <v>15311</v>
+      </c>
+      <c r="I42">
+        <v>151</v>
+      </c>
+      <c r="J42">
+        <v>6743</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-4</v>
+      </c>
+      <c r="N42">
+        <v>1253</v>
+      </c>
+      <c r="O42">
+        <v>9093</v>
+      </c>
+      <c r="P42">
+        <v>6918</v>
+      </c>
+      <c r="Q42">
+        <v>349</v>
+      </c>
+      <c r="R42">
+        <v>41729</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>6218</v>
+      </c>
+      <c r="U42">
+        <v>757</v>
+      </c>
+      <c r="V42">
+        <v>241</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>140</v>
+      </c>
+      <c r="Y42">
+        <v>157</v>
+      </c>
+      <c r="Z42">
+        <v>17</v>
+      </c>
+      <c r="AA42">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>379</v>
+      </c>
+      <c r="D43">
+        <v>1610</v>
+      </c>
+      <c r="E43">
+        <v>1525</v>
+      </c>
+      <c r="F43">
+        <v>1105</v>
+      </c>
+      <c r="G43">
+        <v>2571</v>
+      </c>
+      <c r="H43">
+        <v>16105</v>
+      </c>
+      <c r="I43">
+        <v>226</v>
+      </c>
+      <c r="J43">
+        <v>6045</v>
+      </c>
+      <c r="K43">
+        <v>162</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2360</v>
+      </c>
+      <c r="O43">
+        <v>9473</v>
+      </c>
+      <c r="P43">
+        <v>7074</v>
+      </c>
+      <c r="Q43">
+        <v>-385</v>
+      </c>
+      <c r="R43">
+        <v>41820</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>6632</v>
+      </c>
+      <c r="U43">
+        <v>372</v>
+      </c>
+      <c r="V43">
+        <v>232</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-341</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>15</v>
+      </c>
+      <c r="AA43">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>280</v>
+      </c>
+      <c r="D44">
+        <v>1568</v>
+      </c>
+      <c r="E44">
+        <v>1464</v>
+      </c>
+      <c r="F44">
+        <v>1045</v>
+      </c>
+      <c r="G44">
+        <v>2584</v>
+      </c>
+      <c r="H44">
+        <v>16373</v>
+      </c>
+      <c r="I44">
+        <v>209</v>
+      </c>
+      <c r="J44">
+        <v>6153</v>
+      </c>
+      <c r="K44">
+        <v>126</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2548</v>
+      </c>
+      <c r="O44">
+        <v>9703</v>
+      </c>
+      <c r="P44">
+        <v>7148</v>
+      </c>
+      <c r="Q44">
+        <v>4</v>
+      </c>
+      <c r="R44">
+        <v>41912</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>6670</v>
+      </c>
+      <c r="U44">
+        <v>376</v>
+      </c>
+      <c r="V44">
+        <v>420</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-168</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-151</v>
+      </c>
+      <c r="AA44">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>250</v>
+      </c>
+      <c r="D45">
+        <v>1676</v>
+      </c>
+      <c r="E45">
+        <v>1433</v>
+      </c>
+      <c r="F45">
+        <v>1096</v>
+      </c>
+      <c r="G45">
+        <v>2491</v>
+      </c>
+      <c r="H45">
+        <v>15970</v>
+      </c>
+      <c r="I45">
+        <v>225</v>
+      </c>
+      <c r="J45">
+        <v>6002</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2604</v>
+      </c>
+      <c r="O45">
+        <v>9619</v>
+      </c>
+      <c r="P45">
+        <v>7109</v>
+      </c>
+      <c r="Q45">
+        <v>-9</v>
+      </c>
+      <c r="R45">
+        <v>42004</v>
+      </c>
+      <c r="S45">
+        <v>6800</v>
+      </c>
+      <c r="T45">
+        <v>6351</v>
+      </c>
+      <c r="U45">
+        <v>367</v>
+      </c>
+      <c r="V45">
+        <v>425</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-365</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>250</v>
+      </c>
+      <c r="D46">
+        <v>1537</v>
+      </c>
+      <c r="E46">
+        <v>1431</v>
+      </c>
+      <c r="F46">
+        <v>976</v>
+      </c>
+      <c r="G46">
+        <v>2469</v>
+      </c>
+      <c r="H46">
+        <v>15782</v>
+      </c>
+      <c r="I46">
+        <v>205</v>
+      </c>
+      <c r="J46">
+        <v>7036</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-874</v>
+      </c>
+      <c r="N46">
+        <v>1765</v>
+      </c>
+      <c r="O46">
+        <v>9739</v>
+      </c>
+      <c r="P46">
+        <v>7489</v>
+      </c>
+      <c r="Q46">
+        <v>-46</v>
+      </c>
+      <c r="R46">
+        <v>42094</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>6043</v>
+      </c>
+      <c r="U46">
+        <v>321</v>
+      </c>
+      <c r="V46">
+        <v>63</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>12</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-11</v>
+      </c>
+      <c r="AA46">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>286</v>
+      </c>
+      <c r="D47">
+        <v>1654</v>
+      </c>
+      <c r="E47">
+        <v>1505</v>
+      </c>
+      <c r="F47">
+        <v>1095</v>
+      </c>
+      <c r="G47">
+        <v>2468</v>
+      </c>
+      <c r="H47">
+        <v>15729</v>
+      </c>
+      <c r="I47">
+        <v>277</v>
+      </c>
+      <c r="J47">
+        <v>6856</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1712</v>
+      </c>
+      <c r="O47">
+        <v>9489</v>
+      </c>
+      <c r="P47">
+        <v>7205</v>
+      </c>
+      <c r="Q47">
+        <v>-89</v>
+      </c>
+      <c r="R47">
+        <v>42185</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>6240</v>
+      </c>
+      <c r="U47">
+        <v>232</v>
+      </c>
+      <c r="V47">
+        <v>331</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-499</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>17</v>
+      </c>
+      <c r="AA47">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>279</v>
+      </c>
+      <c r="D48">
+        <v>1557</v>
+      </c>
+      <c r="E48">
+        <v>1556</v>
+      </c>
+      <c r="F48">
+        <v>986</v>
+      </c>
+      <c r="G48">
+        <v>2719</v>
+      </c>
+      <c r="H48">
+        <v>15919</v>
+      </c>
+      <c r="I48">
+        <v>249</v>
+      </c>
+      <c r="J48">
+        <v>6941</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2108</v>
+      </c>
+      <c r="O48">
+        <v>10033</v>
+      </c>
+      <c r="P48">
+        <v>7057</v>
+      </c>
+      <c r="Q48">
+        <v>30</v>
+      </c>
+      <c r="R48">
+        <v>42277</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>5886</v>
+      </c>
+      <c r="U48">
+        <v>262</v>
+      </c>
+      <c r="V48">
+        <v>258</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-212</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>19</v>
+      </c>
+      <c r="AA48">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>219</v>
+      </c>
+      <c r="D49">
+        <v>1646</v>
+      </c>
+      <c r="E49">
+        <v>1479</v>
+      </c>
+      <c r="F49">
+        <v>1054</v>
+      </c>
+      <c r="G49">
+        <v>2596</v>
+      </c>
+      <c r="H49">
+        <v>15864</v>
+      </c>
+      <c r="I49">
+        <v>282</v>
+      </c>
+      <c r="J49">
+        <v>7616</v>
+      </c>
+      <c r="K49">
+        <v>93</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1579</v>
+      </c>
+      <c r="O49">
+        <v>10172</v>
+      </c>
+      <c r="P49">
+        <v>7735</v>
+      </c>
+      <c r="Q49">
+        <v>128</v>
+      </c>
+      <c r="R49">
+        <v>42369</v>
+      </c>
+      <c r="S49">
+        <v>7000</v>
+      </c>
+      <c r="T49">
+        <v>5692</v>
+      </c>
+      <c r="U49">
+        <v>390</v>
+      </c>
+      <c r="V49">
+        <v>625</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-203</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-210</v>
+      </c>
+      <c r="AA49">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>263</v>
+      </c>
+      <c r="D50">
+        <v>1561</v>
+      </c>
+      <c r="E50">
+        <v>1520</v>
+      </c>
+      <c r="F50">
+        <v>975</v>
+      </c>
+      <c r="G50">
+        <v>2667</v>
+      </c>
+      <c r="H50">
+        <v>15878</v>
+      </c>
+      <c r="I50">
+        <v>171</v>
+      </c>
+      <c r="J50">
+        <v>7965</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>-93</v>
+      </c>
+      <c r="M50">
+        <v>-264</v>
+      </c>
+      <c r="N50">
+        <v>1375</v>
+      </c>
+      <c r="O50">
+        <v>10264</v>
+      </c>
+      <c r="P50">
+        <v>7990</v>
+      </c>
+      <c r="Q50">
+        <v>-57</v>
+      </c>
+      <c r="R50">
+        <v>42460</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>5614</v>
+      </c>
+      <c r="U50">
+        <v>333</v>
+      </c>
+      <c r="V50">
+        <v>62</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-155</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>15</v>
+      </c>
+      <c r="AA50">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>408</v>
+      </c>
+      <c r="D51">
+        <v>1708</v>
+      </c>
+      <c r="E51">
+        <v>1574</v>
+      </c>
+      <c r="F51">
+        <v>1108</v>
+      </c>
+      <c r="G51">
+        <v>2548</v>
+      </c>
+      <c r="H51">
+        <v>15690</v>
+      </c>
+      <c r="I51">
+        <v>185</v>
+      </c>
+      <c r="J51">
+        <v>7809</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1442</v>
+      </c>
+      <c r="O51">
+        <v>10104</v>
+      </c>
+      <c r="P51">
+        <v>7939</v>
+      </c>
+      <c r="Q51">
+        <v>-148</v>
+      </c>
+      <c r="R51">
+        <v>42551</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>5586</v>
+      </c>
+      <c r="U51">
+        <v>185</v>
+      </c>
+      <c r="V51">
+        <v>328</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-421</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-35</v>
+      </c>
+      <c r="AA51">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>219</v>
+      </c>
+      <c r="D52">
+        <v>1556</v>
+      </c>
+      <c r="E52">
+        <v>1545</v>
+      </c>
+      <c r="F52">
+        <v>966</v>
+      </c>
+      <c r="G52">
+        <v>2683</v>
+      </c>
+      <c r="H52">
+        <v>15850</v>
+      </c>
+      <c r="I52">
+        <v>202</v>
+      </c>
+      <c r="J52">
+        <v>7901</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1522</v>
+      </c>
+      <c r="O52">
+        <v>10399</v>
+      </c>
+      <c r="P52">
+        <v>7996</v>
+      </c>
+      <c r="Q52">
+        <v>39</v>
+      </c>
+      <c r="R52">
+        <v>42643</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>5451</v>
+      </c>
+      <c r="U52">
+        <v>224</v>
+      </c>
+      <c r="V52">
+        <v>444</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-399</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>18</v>
+      </c>
+      <c r="AA52">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>304</v>
+      </c>
+      <c r="D53">
+        <v>1672</v>
+      </c>
+      <c r="E53">
+        <v>1495</v>
+      </c>
+      <c r="F53">
+        <v>1081</v>
+      </c>
+      <c r="G53">
+        <v>2502</v>
+      </c>
+      <c r="H53">
+        <v>15672</v>
+      </c>
+      <c r="I53">
+        <v>241</v>
+      </c>
+      <c r="J53">
+        <v>7841</v>
+      </c>
+      <c r="K53">
+        <v>48</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1561</v>
+      </c>
+      <c r="O53">
+        <v>10262</v>
+      </c>
+      <c r="P53">
+        <v>7923</v>
+      </c>
+      <c r="Q53">
+        <v>76</v>
+      </c>
+      <c r="R53">
+        <v>42735</v>
+      </c>
+      <c r="S53">
+        <v>7000</v>
+      </c>
+      <c r="T53">
+        <v>5410</v>
+      </c>
+      <c r="U53">
+        <v>300</v>
+      </c>
+      <c r="V53">
+        <v>546</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-209</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-183</v>
+      </c>
+      <c r="AA53">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>215</v>
+      </c>
+      <c r="D54">
+        <v>1613</v>
+      </c>
+      <c r="E54">
+        <v>1560</v>
+      </c>
+      <c r="F54">
+        <v>1006</v>
+      </c>
+      <c r="G54">
+        <v>2591</v>
+      </c>
+      <c r="H54">
+        <v>15862</v>
+      </c>
+      <c r="I54">
+        <v>200</v>
+      </c>
+      <c r="J54">
+        <v>7970</v>
+      </c>
+      <c r="K54">
+        <v>102</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-788</v>
+      </c>
+      <c r="N54">
+        <v>1534</v>
+      </c>
+      <c r="O54">
+        <v>10278</v>
+      </c>
+      <c r="P54">
+        <v>8102</v>
+      </c>
+      <c r="Q54">
+        <v>-33</v>
+      </c>
+      <c r="R54">
+        <v>42825</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>5584</v>
+      </c>
+      <c r="U54">
+        <v>267</v>
+      </c>
+      <c r="V54">
+        <v>255</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-84</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-183</v>
+      </c>
+      <c r="AA54">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>374</v>
+      </c>
+      <c r="D55">
+        <v>1745</v>
+      </c>
+      <c r="E55">
+        <v>1758</v>
+      </c>
+      <c r="F55">
+        <v>1117</v>
+      </c>
+      <c r="G55">
+        <v>2770</v>
+      </c>
+      <c r="H55">
+        <v>16149</v>
+      </c>
+      <c r="I55">
+        <v>222</v>
+      </c>
+      <c r="J55">
+        <v>8158</v>
+      </c>
+      <c r="K55">
+        <v>73</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1466</v>
+      </c>
+      <c r="O55">
+        <v>10386</v>
+      </c>
+      <c r="P55">
+        <v>8263</v>
+      </c>
+      <c r="Q55">
+        <v>-61</v>
+      </c>
+      <c r="R55">
+        <v>42916</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>5763</v>
+      </c>
+      <c r="U55">
+        <v>206</v>
+      </c>
+      <c r="V55">
+        <v>188</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-211</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-69</v>
+      </c>
+      <c r="AA55">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>218</v>
+      </c>
+      <c r="D56">
+        <v>1651</v>
+      </c>
+      <c r="E56">
+        <v>1652</v>
+      </c>
+      <c r="F56">
+        <v>983</v>
+      </c>
+      <c r="G56">
+        <v>9477</v>
+      </c>
+      <c r="H56">
+        <v>23143</v>
+      </c>
+      <c r="I56">
+        <v>253</v>
+      </c>
+      <c r="J56">
+        <v>14676</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1615</v>
+      </c>
+      <c r="O56">
+        <v>17043</v>
+      </c>
+      <c r="P56">
+        <v>14708</v>
+      </c>
+      <c r="Q56">
+        <v>6788</v>
+      </c>
+      <c r="R56">
+        <v>43008</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>6100</v>
+      </c>
+      <c r="U56">
+        <v>6994</v>
+      </c>
+      <c r="V56">
+        <v>724</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>6278</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-97</v>
+      </c>
+      <c r="AA56">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>-1144</v>
+      </c>
+      <c r="D57">
+        <v>1864</v>
+      </c>
+      <c r="E57">
+        <v>1838</v>
+      </c>
+      <c r="F57">
+        <v>1140</v>
+      </c>
+      <c r="G57">
+        <v>9991</v>
+      </c>
+      <c r="H57">
+        <v>22555</v>
+      </c>
+      <c r="I57">
+        <v>277</v>
+      </c>
+      <c r="J57">
+        <v>14755</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1871</v>
+      </c>
+      <c r="O57">
+        <v>17532</v>
+      </c>
+      <c r="P57">
+        <v>14785</v>
+      </c>
+      <c r="Q57">
+        <v>315</v>
+      </c>
+      <c r="R57">
+        <v>43100</v>
+      </c>
+      <c r="S57">
+        <v>7000</v>
+      </c>
+      <c r="T57">
+        <v>5023</v>
+      </c>
+      <c r="U57">
+        <v>7309</v>
+      </c>
+      <c r="V57">
+        <v>462</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-32</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-18</v>
+      </c>
+      <c r="AA57">
+        <v>-1144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-8</v>
+      </c>
+      <c r="D58">
+        <v>2307</v>
+      </c>
+      <c r="E58">
+        <v>2654</v>
+      </c>
+      <c r="F58">
+        <v>1248</v>
+      </c>
+      <c r="G58">
+        <v>4521</v>
+      </c>
+      <c r="H58">
+        <v>34658</v>
+      </c>
+      <c r="I58">
+        <v>283</v>
+      </c>
+      <c r="J58">
+        <v>19214</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-13</v>
+      </c>
+      <c r="N58">
+        <v>2465</v>
+      </c>
+      <c r="O58">
+        <v>24645</v>
+      </c>
+      <c r="P58">
+        <v>19367</v>
+      </c>
+      <c r="Q58">
+        <v>-6497</v>
+      </c>
+      <c r="R58">
+        <v>43190</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>10013</v>
+      </c>
+      <c r="U58">
+        <v>812</v>
+      </c>
+      <c r="V58">
+        <v>160</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>2019</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-22</v>
+      </c>
+      <c r="AA58">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>216</v>
+      </c>
+      <c r="D59">
+        <v>2845</v>
+      </c>
+      <c r="E59">
+        <v>2747</v>
+      </c>
+      <c r="F59">
+        <v>1854</v>
+      </c>
+      <c r="G59">
+        <v>3906</v>
+      </c>
+      <c r="H59">
+        <v>33492</v>
+      </c>
+      <c r="I59">
+        <v>300</v>
+      </c>
+      <c r="J59">
+        <v>17683</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>2696</v>
+      </c>
+      <c r="O59">
+        <v>23456</v>
+      </c>
+      <c r="P59">
+        <v>18329</v>
+      </c>
+      <c r="Q59">
+        <v>-420</v>
+      </c>
+      <c r="R59">
+        <v>43281</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>10036</v>
+      </c>
+      <c r="U59">
+        <v>392</v>
+      </c>
+      <c r="V59">
+        <v>556</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-1042</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-26</v>
+      </c>
+      <c r="AA59">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>117</v>
+      </c>
+      <c r="D60">
+        <v>2592</v>
+      </c>
+      <c r="E60">
+        <v>2578</v>
+      </c>
+      <c r="F60">
+        <v>1660</v>
+      </c>
+      <c r="G60">
+        <v>3914</v>
+      </c>
+      <c r="H60">
+        <v>32912</v>
+      </c>
+      <c r="I60">
+        <v>280</v>
+      </c>
+      <c r="J60">
+        <v>15829</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3860</v>
+      </c>
+      <c r="O60">
+        <v>22679</v>
+      </c>
+      <c r="P60">
+        <v>17482</v>
+      </c>
+      <c r="Q60">
+        <v>139</v>
+      </c>
+      <c r="R60">
+        <v>43373</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>10233</v>
+      </c>
+      <c r="U60">
+        <v>531</v>
+      </c>
+      <c r="V60">
+        <v>931</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-829</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-8</v>
+      </c>
+      <c r="AA60">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>269</v>
+      </c>
+      <c r="D61">
+        <v>2809</v>
+      </c>
+      <c r="E61">
+        <v>2620</v>
+      </c>
+      <c r="F61">
+        <v>1881</v>
+      </c>
+      <c r="G61">
+        <v>4231</v>
+      </c>
+      <c r="H61">
+        <v>32550</v>
+      </c>
+      <c r="I61">
+        <v>325</v>
+      </c>
+      <c r="J61">
+        <v>14974</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3997</v>
+      </c>
+      <c r="O61">
+        <v>22033</v>
+      </c>
+      <c r="P61">
+        <v>17045</v>
+      </c>
+      <c r="Q61">
+        <v>455</v>
+      </c>
+      <c r="R61">
+        <v>43465</v>
+      </c>
+      <c r="S61">
+        <v>9000</v>
+      </c>
+      <c r="T61">
+        <v>10517</v>
+      </c>
+      <c r="U61">
+        <v>986</v>
+      </c>
+      <c r="V61">
+        <v>929</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-431</v>
+      </c>
+      <c r="Y61">
+        <v>201</v>
+      </c>
+      <c r="Z61">
+        <v>-4</v>
+      </c>
+      <c r="AA61">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>384</v>
+      </c>
+      <c r="D62">
+        <v>2707</v>
+      </c>
+      <c r="E62">
+        <v>2625</v>
+      </c>
+      <c r="F62">
+        <v>1777</v>
+      </c>
+      <c r="G62">
+        <v>4025</v>
+      </c>
+      <c r="H62">
+        <v>32444</v>
+      </c>
+      <c r="I62">
+        <v>314</v>
+      </c>
+      <c r="J62">
+        <v>14956</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-453</v>
+      </c>
+      <c r="N62">
+        <v>3475</v>
+      </c>
+      <c r="O62">
+        <v>21704</v>
+      </c>
+      <c r="P62">
+        <v>16955</v>
+      </c>
+      <c r="Q62">
+        <v>-241</v>
+      </c>
+      <c r="R62">
+        <v>43555</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>10740</v>
+      </c>
+      <c r="U62">
+        <v>745</v>
+      </c>
+      <c r="V62">
+        <v>542</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-652</v>
+      </c>
+      <c r="Y62">
+        <v>476</v>
+      </c>
+      <c r="Z62">
+        <v>-34</v>
+      </c>
+      <c r="AA62">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>947</v>
+      </c>
+      <c r="D63">
+        <v>2885</v>
+      </c>
+      <c r="E63">
+        <v>2854</v>
+      </c>
+      <c r="F63">
+        <v>1950</v>
+      </c>
+      <c r="G63">
+        <v>4932</v>
+      </c>
+      <c r="H63">
+        <v>33845</v>
+      </c>
+      <c r="I63">
+        <v>325</v>
+      </c>
+      <c r="J63">
+        <v>14823</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>3874</v>
+      </c>
+      <c r="O63">
+        <v>22180</v>
+      </c>
+      <c r="P63">
+        <v>17265</v>
+      </c>
+      <c r="Q63">
+        <v>576</v>
+      </c>
+      <c r="R63">
+        <v>43646</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>11665</v>
+      </c>
+      <c r="U63">
+        <v>1321</v>
+      </c>
+      <c r="V63">
+        <v>674</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>9</v>
+      </c>
+      <c r="Y63">
+        <v>634</v>
+      </c>
+      <c r="Z63">
+        <v>-8</v>
+      </c>
+      <c r="AA63">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>262</v>
+      </c>
+      <c r="D64">
+        <v>2678</v>
+      </c>
+      <c r="E64">
+        <v>2695</v>
+      </c>
+      <c r="F64">
+        <v>1768</v>
+      </c>
+      <c r="G64">
+        <v>4313</v>
+      </c>
+      <c r="H64">
+        <v>32825</v>
+      </c>
+      <c r="I64">
+        <v>380</v>
+      </c>
+      <c r="J64">
+        <v>14757</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2837</v>
+      </c>
+      <c r="O64">
+        <v>21246</v>
+      </c>
+      <c r="P64">
+        <v>16299</v>
+      </c>
+      <c r="Q64">
+        <v>-508</v>
+      </c>
+      <c r="R64">
+        <v>43738</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>11579</v>
+      </c>
+      <c r="U64">
+        <v>813</v>
+      </c>
+      <c r="V64">
+        <v>951</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-1349</v>
+      </c>
+      <c r="Y64">
+        <v>812</v>
+      </c>
+      <c r="Z64">
+        <v>-56</v>
+      </c>
+      <c r="AA64">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>476</v>
+      </c>
+      <c r="D65">
+        <v>2874</v>
+      </c>
+      <c r="E65">
+        <v>2633</v>
+      </c>
+      <c r="F65">
+        <v>1897</v>
+      </c>
+      <c r="G65">
+        <v>5217</v>
+      </c>
+      <c r="H65">
+        <v>33735</v>
+      </c>
+      <c r="I65">
+        <v>463</v>
+      </c>
+      <c r="J65">
+        <v>14810</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>3239</v>
+      </c>
+      <c r="O65">
+        <v>21769</v>
+      </c>
+      <c r="P65">
+        <v>16372</v>
+      </c>
+      <c r="Q65">
+        <v>739</v>
+      </c>
+      <c r="R65">
+        <v>43830</v>
+      </c>
+      <c r="S65">
+        <v>9200</v>
+      </c>
+      <c r="T65">
+        <v>11966</v>
+      </c>
+      <c r="U65">
+        <v>1552</v>
+      </c>
+      <c r="V65">
+        <v>1232</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-365</v>
+      </c>
+      <c r="Y65">
+        <v>824</v>
+      </c>
+      <c r="Z65">
+        <v>-156</v>
+      </c>
+      <c r="AA65">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>377</v>
+      </c>
+      <c r="D66">
+        <v>2683</v>
+      </c>
+      <c r="E66">
+        <v>2564</v>
+      </c>
+      <c r="F66">
+        <v>1765</v>
+      </c>
+      <c r="G66">
+        <v>4626</v>
+      </c>
+      <c r="H66">
+        <v>33390</v>
+      </c>
+      <c r="I66">
+        <v>421</v>
+      </c>
+      <c r="J66">
+        <v>15501</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2875</v>
+      </c>
+      <c r="O66">
+        <v>21986</v>
+      </c>
+      <c r="P66">
+        <v>16108</v>
+      </c>
+      <c r="Q66">
+        <v>-18</v>
+      </c>
+      <c r="R66">
+        <v>43921</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>11404</v>
+      </c>
+      <c r="U66">
+        <v>1453</v>
+      </c>
+      <c r="V66">
+        <v>335</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-259</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-42</v>
+      </c>
+      <c r="AA66">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
         <v>271</v>
       </c>
-      <c r="D42">
+      <c r="D67">
+        <v>2541</v>
+      </c>
+      <c r="E67">
+        <v>2473</v>
+      </c>
+      <c r="F67">
+        <v>1737</v>
+      </c>
+      <c r="G67">
+        <v>4717</v>
+      </c>
+      <c r="H67">
+        <v>33089</v>
+      </c>
+      <c r="I67">
+        <v>367</v>
+      </c>
+      <c r="J67">
+        <v>15170</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2576</v>
+      </c>
+      <c r="O67">
+        <v>21289</v>
+      </c>
+      <c r="P67">
+        <v>15509</v>
+      </c>
+      <c r="Q67">
+        <v>204</v>
+      </c>
+      <c r="R67">
+        <v>44012</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>11800</v>
+      </c>
+      <c r="U67">
+        <v>1683</v>
+      </c>
+      <c r="V67">
+        <v>991</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-739</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>26</v>
+      </c>
+      <c r="AA67">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>300</v>
+      </c>
+      <c r="D68">
+        <v>2561</v>
+      </c>
+      <c r="E68">
+        <v>2444</v>
+      </c>
+      <c r="F68">
+        <v>1559</v>
+      </c>
+      <c r="G68">
+        <v>5478</v>
+      </c>
+      <c r="H68">
+        <v>33438</v>
+      </c>
+      <c r="I68">
+        <v>403</v>
+      </c>
+      <c r="J68">
+        <v>15154</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2756</v>
+      </c>
+      <c r="O68">
+        <v>21398</v>
+      </c>
+      <c r="P68">
+        <v>15490</v>
+      </c>
+      <c r="Q68">
+        <v>218</v>
+      </c>
+      <c r="R68">
+        <v>44104</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>12040</v>
+      </c>
+      <c r="U68">
+        <v>1893</v>
+      </c>
+      <c r="V68">
+        <v>860</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-274</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-308</v>
+      </c>
+      <c r="AA68">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>271</v>
+      </c>
+      <c r="D69">
         <v>2886</v>
       </c>
-      <c r="E42">
+      <c r="E69">
         <v>2537</v>
       </c>
-      <c r="F42">
+      <c r="F69">
         <v>1797</v>
       </c>
-      <c r="G42">
+      <c r="G69">
         <v>6130</v>
       </c>
-      <c r="H42">
+      <c r="H69">
         <v>34087</v>
       </c>
-      <c r="I42">
+      <c r="I69">
         <v>397</v>
       </c>
-      <c r="J42">
+      <c r="J69">
         <v>15158</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
         <v>3082</v>
       </c>
-      <c r="O42">
+      <c r="O69">
         <v>21704</v>
       </c>
-      <c r="P42">
+      <c r="P69">
         <v>16397</v>
       </c>
-      <c r="Q42">
+      <c r="Q69">
         <v>166</v>
       </c>
-      <c r="R42">
+      <c r="R69">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S69">
         <v>9800</v>
       </c>
-      <c r="T42">
+      <c r="T69">
         <v>12383</v>
       </c>
-      <c r="U42">
+      <c r="U69">
         <v>2091</v>
       </c>
-      <c r="V42">
+      <c r="V69">
         <v>553</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
         <v>-277</v>
       </c>
-      <c r="Y42">
+      <c r="Y69">
         <v>776</v>
       </c>
-      <c r="Z42">
+      <c r="Z69">
         <v>-107</v>
       </c>
-      <c r="AA42">
+      <c r="AA69">
         <v>271</v>
       </c>
     </row>
